--- a/src/main/resources/template_price.xlsx
+++ b/src/main/resources/template_price.xlsx
@@ -463,7 +463,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
